--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sost-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sost-Lrp4.xlsx
@@ -543,10 +543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H2">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5172723333333333</v>
+        <v>0.665744</v>
       </c>
       <c r="N2">
-        <v>1.551817</v>
+        <v>1.997232</v>
       </c>
       <c r="O2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="P2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="Q2">
-        <v>0.004174732578222222</v>
+        <v>0.08073832551466667</v>
       </c>
       <c r="R2">
-        <v>0.037572593204</v>
+        <v>0.7266449296319999</v>
       </c>
       <c r="S2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
       <c r="T2">
-        <v>0.04808286025621767</v>
+        <v>0.07058985944777574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H3">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>4.570107999999999</v>
       </c>
       <c r="O3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="P3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="Q3">
-        <v>0.01229460609955555</v>
+        <v>0.1847471236897777</v>
       </c>
       <c r="R3">
-        <v>0.110651454896</v>
+        <v>1.662724113208</v>
       </c>
       <c r="S3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
       <c r="T3">
-        <v>0.1416042383346892</v>
+        <v>0.1615251915556908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H4">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.230958</v>
+        <v>1.786190333333334</v>
       </c>
       <c r="N4">
-        <v>6.692874000000001</v>
+        <v>5.358571</v>
       </c>
       <c r="O4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="P4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="Q4">
-        <v>0.01800531836533334</v>
+        <v>0.2166208280717778</v>
       </c>
       <c r="R4">
-        <v>0.162047865288</v>
+        <v>1.949587452646</v>
       </c>
       <c r="S4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
       <c r="T4">
-        <v>0.2073778836386459</v>
+        <v>0.1893925060938975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H5">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.406344</v>
+        <v>2.606414666666667</v>
       </c>
       <c r="N5">
-        <v>7.219032</v>
+        <v>7.819244</v>
       </c>
       <c r="O5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="P5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="Q5">
-        <v>0.01942080030933334</v>
+        <v>0.3160938075048889</v>
       </c>
       <c r="R5">
-        <v>0.174787202784</v>
+        <v>2.844844267544</v>
       </c>
       <c r="S5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
       <c r="T5">
-        <v>0.2236808250207103</v>
+        <v>0.2763621526932594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H6">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.287133333333333</v>
+        <v>1.713409666666666</v>
       </c>
       <c r="N6">
-        <v>3.8614</v>
+        <v>5.140229</v>
       </c>
       <c r="O6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="P6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="Q6">
-        <v>0.01038802408888889</v>
+        <v>0.2077943284615555</v>
       </c>
       <c r="R6">
-        <v>0.0934922168</v>
+        <v>1.870148956154</v>
       </c>
       <c r="S6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
       <c r="T6">
-        <v>0.1196450074933828</v>
+        <v>0.1816754601565471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.008070666666666667</v>
+        <v>0.1212753333333333</v>
       </c>
       <c r="H7">
-        <v>0.024212</v>
+        <v>0.363826</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.792859</v>
+        <v>1.136028333333333</v>
       </c>
       <c r="N7">
-        <v>8.378577</v>
+        <v>3.408085</v>
       </c>
       <c r="O7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="P7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="Q7">
-        <v>0.022540234036</v>
+        <v>0.1377722148011111</v>
       </c>
       <c r="R7">
-        <v>0.202862106324</v>
+        <v>1.23994993321</v>
       </c>
       <c r="S7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
       <c r="T7">
-        <v>0.259609185256354</v>
+        <v>0.1204548300528295</v>
       </c>
     </row>
   </sheetData>
